--- a/形容動詞.xlsx
+++ b/形容動詞.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666042E5-6B76-4531-943B-159F289399AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52919EC0-E599-429B-B8C2-73F210852DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="動作（どうさ）" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="239">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,6 +1066,14 @@
   </si>
   <si>
     <t>かつよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単調</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たんちょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9115A421-29BE-4C07-ACE1-21241DA52C36}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1775,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2097,6 +2105,12 @@
       </c>
       <c r="C16" s="4" t="s">
         <v>82</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
